--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ctf1-Lifr.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H2">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I2">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J2">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N2">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O2">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P2">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q2">
-        <v>1.42757818594</v>
+        <v>23.33721780195022</v>
       </c>
       <c r="R2">
-        <v>12.84820367346</v>
+        <v>210.034960217552</v>
       </c>
       <c r="S2">
-        <v>0.01321612167347015</v>
+        <v>0.2384773820903817</v>
       </c>
       <c r="T2">
-        <v>0.01321612167347015</v>
+        <v>0.2384773820903817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H3">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I3">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J3">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.512854</v>
       </c>
       <c r="O3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q3">
-        <v>0.8197190440280001</v>
+        <v>17.07006622078933</v>
       </c>
       <c r="R3">
-        <v>7.377471396252001</v>
+        <v>153.630595987104</v>
       </c>
       <c r="S3">
-        <v>0.007588730852455042</v>
+        <v>0.1744348764702838</v>
       </c>
       <c r="T3">
-        <v>0.007588730852455042</v>
+        <v>0.1744348764702838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H4">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I4">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J4">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N4">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q4">
-        <v>0.5356707037693335</v>
+        <v>16.66153911522844</v>
       </c>
       <c r="R4">
-        <v>4.821036333924001</v>
+        <v>149.953852037056</v>
       </c>
       <c r="S4">
-        <v>0.004959090344510517</v>
+        <v>0.1702602368249795</v>
       </c>
       <c r="T4">
-        <v>0.004959090344510517</v>
+        <v>0.1702602368249796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H5">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I5">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J5">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N5">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q5">
-        <v>0.8437375003426667</v>
+        <v>4.353687251532445</v>
       </c>
       <c r="R5">
-        <v>7.593637503084</v>
+        <v>39.18318526379201</v>
       </c>
       <c r="S5">
-        <v>0.007811087038750049</v>
+        <v>0.04448927661372567</v>
       </c>
       <c r="T5">
-        <v>0.007811087038750049</v>
+        <v>0.04448927661372568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H6">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I6">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J6">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N6">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q6">
-        <v>0.2947312592786667</v>
+        <v>4.659715009159112</v>
       </c>
       <c r="R6">
-        <v>2.652581333508</v>
+        <v>41.937435082432</v>
       </c>
       <c r="S6">
-        <v>0.002728540000096113</v>
+        <v>0.04761650022303263</v>
       </c>
       <c r="T6">
-        <v>0.002728540000096113</v>
+        <v>0.04761650022303264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05524600000000001</v>
+        <v>1.150458666666667</v>
       </c>
       <c r="H7">
-        <v>0.165738</v>
+        <v>3.451376</v>
       </c>
       <c r="I7">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="J7">
-        <v>0.05123086624298327</v>
+        <v>0.7543437247013116</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N7">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q7">
-        <v>1.612415740983334</v>
+        <v>7.737285896616889</v>
       </c>
       <c r="R7">
-        <v>14.51174166885</v>
+        <v>69.635573069552</v>
       </c>
       <c r="S7">
-        <v>0.0149272963337014</v>
+        <v>0.07906545247890825</v>
       </c>
       <c r="T7">
-        <v>0.0149272963337014</v>
+        <v>0.07906545247890827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.336249</v>
       </c>
       <c r="I8">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J8">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N8">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O8">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P8">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q8">
-        <v>2.896268432369999</v>
+        <v>2.273619608147</v>
       </c>
       <c r="R8">
-        <v>26.06641589133</v>
+        <v>20.462576473323</v>
       </c>
       <c r="S8">
-        <v>0.02681284736501383</v>
+        <v>0.02323356865508387</v>
       </c>
       <c r="T8">
-        <v>0.02681284736501383</v>
+        <v>0.02323356865508387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.336249</v>
       </c>
       <c r="I9">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J9">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>44.512854</v>
       </c>
       <c r="O9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q9">
         <v>1.663044738294</v>
@@ -1013,10 +1013,10 @@
         <v>14.967402644646</v>
       </c>
       <c r="S9">
-        <v>0.01539600550511745</v>
+        <v>0.01699425179356189</v>
       </c>
       <c r="T9">
-        <v>0.01539600550511744</v>
+        <v>0.01699425179356189</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.336249</v>
       </c>
       <c r="I10">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J10">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N10">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q10">
-        <v>1.086767901578</v>
+        <v>1.623244139716</v>
       </c>
       <c r="R10">
-        <v>9.780911114202</v>
+        <v>14.609197257444</v>
       </c>
       <c r="S10">
-        <v>0.01006099487897354</v>
+        <v>0.01658753910676859</v>
       </c>
       <c r="T10">
-        <v>0.01006099487897354</v>
+        <v>0.01658753910676859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.336249</v>
       </c>
       <c r="I11">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J11">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N11">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q11">
-        <v>1.711773345598</v>
+        <v>0.424156332037</v>
       </c>
       <c r="R11">
-        <v>15.405960110382</v>
+        <v>3.817406988333001</v>
       </c>
       <c r="S11">
-        <v>0.01584712139456651</v>
+        <v>0.004334350929046456</v>
       </c>
       <c r="T11">
-        <v>0.01584712139456651</v>
+        <v>0.004334350929046458</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.336249</v>
       </c>
       <c r="I12">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J12">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N12">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q12">
-        <v>0.597950326426</v>
+        <v>0.4539709704520001</v>
       </c>
       <c r="R12">
-        <v>5.381552937834</v>
+        <v>4.085738734068</v>
       </c>
       <c r="S12">
-        <v>0.005535657764014997</v>
+        <v>0.004639019505117524</v>
       </c>
       <c r="T12">
-        <v>0.005535657764014996</v>
+        <v>0.004639019505117524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.336249</v>
       </c>
       <c r="I13">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="J13">
-        <v>0.1039371027968051</v>
+        <v>0.07349165176065758</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N13">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q13">
-        <v>3.271266580325</v>
+        <v>0.7538021488969999</v>
       </c>
       <c r="R13">
-        <v>29.441399222925</v>
+        <v>6.784219340073</v>
       </c>
       <c r="S13">
-        <v>0.03028447588911874</v>
+        <v>0.007702921771079251</v>
       </c>
       <c r="T13">
-        <v>0.03028447588911873</v>
+        <v>0.007702921771079252</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H14">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I14">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J14">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N14">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O14">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P14">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q14">
-        <v>1.41367605612</v>
+        <v>0.8315488396703333</v>
       </c>
       <c r="R14">
-        <v>12.72308450508</v>
+        <v>7.483939557033001</v>
       </c>
       <c r="S14">
-        <v>0.01308741962336105</v>
+        <v>0.008497396392654132</v>
       </c>
       <c r="T14">
-        <v>0.01308741962336105</v>
+        <v>0.008497396392654132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H15">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I15">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J15">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>44.512854</v>
       </c>
       <c r="O15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q15">
-        <v>0.811736405544</v>
+        <v>0.6082384746739999</v>
       </c>
       <c r="R15">
-        <v>7.305627649896</v>
+        <v>5.474146272066</v>
       </c>
       <c r="S15">
-        <v>0.007514829806250414</v>
+        <v>0.006215441804497403</v>
       </c>
       <c r="T15">
-        <v>0.007514829806250413</v>
+        <v>0.006215441804497405</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H16">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I16">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J16">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N16">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q16">
-        <v>0.5304542023280001</v>
+        <v>0.5936818877026666</v>
       </c>
       <c r="R16">
-        <v>4.774087820952</v>
+        <v>5.343136989324</v>
       </c>
       <c r="S16">
-        <v>0.004910797425469379</v>
+        <v>0.006066691564320769</v>
       </c>
       <c r="T16">
-        <v>0.004910797425469378</v>
+        <v>0.00606669156432077</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H17">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I17">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J17">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N17">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q17">
-        <v>0.8355209638479999</v>
+        <v>0.1551300421936667</v>
       </c>
       <c r="R17">
-        <v>7.519688674631999</v>
+        <v>1.396170379743</v>
       </c>
       <c r="S17">
-        <v>0.007735020629836325</v>
+        <v>0.001585236366214336</v>
       </c>
       <c r="T17">
-        <v>0.007735020629836324</v>
+        <v>0.001585236366214336</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H18">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I18">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J18">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N18">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q18">
-        <v>0.291861089176</v>
+        <v>0.1660343851586667</v>
       </c>
       <c r="R18">
-        <v>2.626749802584</v>
+        <v>1.494309466428</v>
       </c>
       <c r="S18">
-        <v>0.002701968763806576</v>
+        <v>0.001696665208580094</v>
       </c>
       <c r="T18">
-        <v>0.002701968763806576</v>
+        <v>0.001696665208580094</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.054708</v>
+        <v>0.040993</v>
       </c>
       <c r="H19">
-        <v>0.164124</v>
+        <v>0.122979</v>
       </c>
       <c r="I19">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="J19">
-        <v>0.05073196666584238</v>
+        <v>0.02687868169681965</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N19">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q19">
-        <v>1.5967136147</v>
+        <v>0.2756940079203333</v>
       </c>
       <c r="R19">
-        <v>14.3704225323</v>
+        <v>2.481246071283</v>
       </c>
       <c r="S19">
-        <v>0.01478193041711864</v>
+        <v>0.002817250360552909</v>
       </c>
       <c r="T19">
-        <v>0.01478193041711863</v>
+        <v>0.002817250360552909</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H20">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I20">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J20">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N20">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O20">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P20">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q20">
-        <v>22.12806482450333</v>
+        <v>4.49472774450711</v>
       </c>
       <c r="R20">
-        <v>199.15258342053</v>
+        <v>40.452549700564</v>
       </c>
       <c r="S20">
-        <v>0.2048554678120881</v>
+        <v>0.04593053528555091</v>
       </c>
       <c r="T20">
-        <v>0.2048554678120881</v>
+        <v>0.04593053528555092</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H21">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I21">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J21">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>44.512854</v>
       </c>
       <c r="O21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q21">
-        <v>12.70599139352066</v>
+        <v>3.287679829458666</v>
       </c>
       <c r="R21">
-        <v>114.353922541686</v>
+        <v>29.589118465128</v>
       </c>
       <c r="S21">
-        <v>0.1176285333389728</v>
+        <v>0.03359600469663249</v>
       </c>
       <c r="T21">
-        <v>0.1176285333389728</v>
+        <v>0.0335960046966325</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H22">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I22">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J22">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N22">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q22">
-        <v>8.303122150742444</v>
+        <v>3.208997866110222</v>
       </c>
       <c r="R22">
-        <v>74.72809935668199</v>
+        <v>28.880980794992</v>
       </c>
       <c r="S22">
-        <v>0.07686799482834725</v>
+        <v>0.03279197275090928</v>
       </c>
       <c r="T22">
-        <v>0.07686799482834725</v>
+        <v>0.03279197275090929</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H23">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I23">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J23">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N23">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q23">
-        <v>13.07828761067355</v>
+        <v>0.8385163581382222</v>
       </c>
       <c r="R23">
-        <v>117.704588496062</v>
+        <v>7.546647223244001</v>
       </c>
       <c r="S23">
-        <v>0.1210751481394262</v>
+        <v>0.008568595778030295</v>
       </c>
       <c r="T23">
-        <v>0.1210751481394262</v>
+        <v>0.008568595778030296</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>26</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H24">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I24">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J24">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N24">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q24">
-        <v>4.568458999554889</v>
+        <v>0.8974570366915556</v>
       </c>
       <c r="R24">
-        <v>41.116130995994</v>
+        <v>8.077113330224</v>
       </c>
       <c r="S24">
-        <v>0.04229352240950725</v>
+        <v>0.00917089631099507</v>
       </c>
       <c r="T24">
-        <v>0.04229352240950725</v>
+        <v>0.009170896310995071</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.8563363333333333</v>
+        <v>0.2215773333333333</v>
       </c>
       <c r="H25">
-        <v>2.569009</v>
+        <v>0.664732</v>
       </c>
       <c r="I25">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="J25">
-        <v>0.7941000642943693</v>
+        <v>0.1452859418412112</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N25">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q25">
-        <v>24.99312499443611</v>
+        <v>1.490194498840444</v>
       </c>
       <c r="R25">
-        <v>224.938124949925</v>
+        <v>13.411750489564</v>
       </c>
       <c r="S25">
-        <v>0.2313793977660277</v>
+        <v>0.01522793701909315</v>
       </c>
       <c r="T25">
-        <v>0.2313793977660277</v>
+        <v>0.01522793701909315</v>
       </c>
     </row>
   </sheetData>
